--- a/ExcelFundamentalsfordataanalysis/week3/week3Practise/131 - Cell referencing and naming.xlsx
+++ b/ExcelFundamentalsfordataanalysis/week3/week3Practise/131 - Cell referencing and naming.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuliu102\OneDrive - Advanced Micro Devices Inc\Unity_coursera\Excel\week3\week3Practise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuliu102\OneDrive - Advanced Micro Devices Inc\Unity_coursera\Excel\ExcelFundamentalsfordataanalysis\week3\week3Practise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2A0464-A912-4553-B40A-063EE1C0D409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18BAB3A-579E-4C71-9506-CDC0393E5E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13916,7 +13916,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13951,7 +13951,7 @@
       </c>
       <c r="B2" s="8">
         <f ca="1">TODAY()</f>
-        <v>44538</v>
+        <v>44557</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="28"/>
@@ -14079,7 +14079,10 @@
         <f>IF(F5&gt;E5,NETWORKDAYS(E5,F5,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>10</v>
       </c>
-      <c r="N5" s="20"/>
+      <c r="N5" s="20">
+        <f>J5*$N$2</f>
+        <v>2.673</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
@@ -14125,7 +14128,10 @@
         <f>IF(F6&gt;E6,NETWORKDAYS(E6,F6,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="20"/>
+      <c r="N6" s="20">
+        <f t="shared" ref="N6:N69" si="3">J6*$N$2</f>
+        <v>3.6756720000000001</v>
+      </c>
       <c r="O6" s="12"/>
     </row>
     <row r="7" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
@@ -14172,7 +14178,10 @@
         <f>IF(F7&gt;E7,NETWORKDAYS(E7,F7,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="20"/>
+      <c r="N7" s="20">
+        <f t="shared" si="3"/>
+        <v>1.474308</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
@@ -14218,7 +14227,10 @@
         <f>IF(F8&gt;E8,NETWORKDAYS(E8,F8,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="20"/>
+      <c r="N8" s="20">
+        <f t="shared" si="3"/>
+        <v>-0.84585600000000005</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
@@ -14264,7 +14276,10 @@
         <f>IF(F9&gt;E9,NETWORKDAYS(E9,F9,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="20"/>
+      <c r="N9" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.6204319999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
@@ -14310,7 +14325,10 @@
         <f>IF(F10&gt;E10,NETWORKDAYS(E10,F10,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="20"/>
+      <c r="N10" s="20">
+        <f t="shared" si="3"/>
+        <v>0.41104800000000002</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -14356,7 +14374,10 @@
         <f>IF(F11&gt;E11,NETWORKDAYS(E11,F11,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>6</v>
       </c>
-      <c r="N11" s="20"/>
+      <c r="N11" s="20">
+        <f t="shared" si="3"/>
+        <v>3.3513479999999998</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
@@ -14402,7 +14423,10 @@
         <f>IF(F12&gt;E12,NETWORKDAYS(E12,F12,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N12" s="20"/>
+      <c r="N12" s="20">
+        <f t="shared" si="3"/>
+        <v>1.678644</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -14448,7 +14472,10 @@
         <f>IF(F13&gt;E13,NETWORKDAYS(E13,F13,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>4</v>
       </c>
-      <c r="N13" s="20"/>
+      <c r="N13" s="20">
+        <f t="shared" si="3"/>
+        <v>0.80071199999999998</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
@@ -14494,7 +14521,10 @@
         <f>IF(F14&gt;E14,NETWORKDAYS(E14,F14,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>1</v>
       </c>
-      <c r="N14" s="20"/>
+      <c r="N14" s="20">
+        <f t="shared" si="3"/>
+        <v>2.4472799999999997</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
@@ -14540,7 +14570,10 @@
         <f>IF(F15&gt;E15,NETWORKDAYS(E15,F15,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="20"/>
+      <c r="N15" s="20">
+        <f t="shared" si="3"/>
+        <v>0.61894800000000005</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
@@ -14586,7 +14619,10 @@
         <f>IF(F16&gt;E16,NETWORKDAYS(E16,F16,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>10</v>
       </c>
-      <c r="N16" s="20"/>
+      <c r="N16" s="20">
+        <f t="shared" si="3"/>
+        <v>2.24532</v>
+      </c>
     </row>
     <row r="17" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
@@ -14632,7 +14668,10 @@
         <f>IF(F17&gt;E17,NETWORKDAYS(E17,F17,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="20"/>
+      <c r="N17" s="20">
+        <f t="shared" si="3"/>
+        <v>0.79596</v>
+      </c>
     </row>
     <row r="18" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
@@ -14678,7 +14717,10 @@
         <f>IF(F18&gt;E18,NETWORKDAYS(E18,F18,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N18" s="20"/>
+      <c r="N18" s="20">
+        <f t="shared" si="3"/>
+        <v>1.416096</v>
+      </c>
     </row>
     <row r="19" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
@@ -14724,7 +14766,10 @@
         <f>IF(F19&gt;E19,NETWORKDAYS(E19,F19,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>7</v>
       </c>
-      <c r="N19" s="20"/>
+      <c r="N19" s="20">
+        <f t="shared" si="3"/>
+        <v>2.3118479999999999</v>
+      </c>
     </row>
     <row r="20" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
@@ -14770,7 +14815,10 @@
         <f>IF(F20&gt;E20,NETWORKDAYS(E20,F20,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>9</v>
       </c>
-      <c r="N20" s="20"/>
+      <c r="N20" s="20">
+        <f t="shared" si="3"/>
+        <v>1.79982</v>
+      </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
@@ -14816,7 +14864,10 @@
         <f>IF(F21&gt;E21,NETWORKDAYS(E21,F21,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>7</v>
       </c>
-      <c r="N21" s="20"/>
+      <c r="N21" s="20">
+        <f t="shared" si="3"/>
+        <v>1.0787039999999999</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -14862,7 +14913,10 @@
         <f>IF(F22&gt;E22,NETWORKDAYS(E22,F22,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>7</v>
       </c>
-      <c r="N22" s="20"/>
+      <c r="N22" s="20">
+        <f t="shared" si="3"/>
+        <v>1.1262239999999999</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
@@ -14908,7 +14962,10 @@
         <f>IF(F23&gt;E23,NETWORKDAYS(E23,F23,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N23" s="20"/>
+      <c r="N23" s="20">
+        <f t="shared" si="3"/>
+        <v>3.5770679999999997</v>
+      </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
@@ -14954,7 +15011,10 @@
         <f>IF(F24&gt;E24,NETWORKDAYS(E24,F24,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N24" s="20"/>
+      <c r="N24" s="20">
+        <f t="shared" si="3"/>
+        <v>3.7932839999999999</v>
+      </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
@@ -15000,7 +15060,10 @@
         <f>IF(F25&gt;E25,NETWORKDAYS(E25,F25,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N25" s="20"/>
+      <c r="N25" s="20">
+        <f t="shared" si="3"/>
+        <v>3.7719</v>
+      </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
@@ -15046,7 +15109,10 @@
         <f>IF(F26&gt;E26,NETWORKDAYS(E26,F26,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>9</v>
       </c>
-      <c r="N26" s="20"/>
+      <c r="N26" s="20">
+        <f t="shared" si="3"/>
+        <v>3.948912</v>
+      </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
@@ -15092,7 +15158,10 @@
         <f>IF(F27&gt;E27,NETWORKDAYS(E27,F27,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>10</v>
       </c>
-      <c r="N27" s="20"/>
+      <c r="N27" s="20">
+        <f t="shared" si="3"/>
+        <v>0.92545199999999994</v>
+      </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
@@ -15138,7 +15207,10 @@
         <f>IF(F28&gt;E28,NETWORKDAYS(E28,F28,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N28" s="20"/>
+      <c r="N28" s="20">
+        <f t="shared" si="3"/>
+        <v>0.77576400000000001</v>
+      </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
@@ -15184,7 +15256,10 @@
         <f>IF(F29&gt;E29,NETWORKDAYS(E29,F29,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N29" s="20"/>
+      <c r="N29" s="20">
+        <f t="shared" si="3"/>
+        <v>1.638252</v>
+      </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
@@ -15230,7 +15305,10 @@
         <f>IF(F30&gt;E30,NETWORKDAYS(E30,F30,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N30" s="20"/>
+      <c r="N30" s="20">
+        <f t="shared" si="3"/>
+        <v>2.5625159999999996</v>
+      </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
@@ -15276,7 +15354,10 @@
         <f>IF(F31&gt;E31,NETWORKDAYS(E31,F31,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N31" s="20"/>
+      <c r="N31" s="20">
+        <f t="shared" si="3"/>
+        <v>0.282744</v>
+      </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
@@ -15322,7 +15403,10 @@
         <f>IF(F32&gt;E32,NETWORKDAYS(E32,F32,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>3</v>
       </c>
-      <c r="N32" s="20"/>
+      <c r="N32" s="20">
+        <f t="shared" si="3"/>
+        <v>1.089396</v>
+      </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
@@ -15368,7 +15452,10 @@
         <f>IF(F33&gt;E33,NETWORKDAYS(E33,F33,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>12</v>
       </c>
-      <c r="N33" s="20"/>
+      <c r="N33" s="20">
+        <f t="shared" si="3"/>
+        <v>1.5337079999999998</v>
+      </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
@@ -15414,7 +15501,10 @@
         <f>IF(F34&gt;E34,NETWORKDAYS(E34,F34,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>1</v>
       </c>
-      <c r="N34" s="20"/>
+      <c r="N34" s="20">
+        <f t="shared" si="3"/>
+        <v>1.7629920000000001</v>
+      </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
@@ -15460,7 +15550,10 @@
         <f>IF(F35&gt;E35,NETWORKDAYS(E35,F35,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>2</v>
       </c>
-      <c r="N35" s="20"/>
+      <c r="N35" s="20">
+        <f t="shared" si="3"/>
+        <v>1.2687839999999999</v>
+      </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
@@ -15506,7 +15599,10 @@
         <f>IF(F36&gt;E36,NETWORKDAYS(E36,F36,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N36" s="20"/>
+      <c r="N36" s="20">
+        <f t="shared" si="3"/>
+        <v>0.85892400000000002</v>
+      </c>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
@@ -15552,7 +15648,10 @@
         <f>IF(F37&gt;E37,NETWORKDAYS(E37,F37,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N37" s="20"/>
+      <c r="N37" s="20">
+        <f t="shared" si="3"/>
+        <v>1.9768319999999999</v>
+      </c>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
@@ -15598,7 +15697,10 @@
         <f>IF(F38&gt;E38,NETWORKDAYS(E38,F38,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N38" s="20"/>
+      <c r="N38" s="20">
+        <f t="shared" si="3"/>
+        <v>1.160676</v>
+      </c>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
@@ -15644,7 +15746,10 @@
         <f>IF(F39&gt;E39,NETWORKDAYS(E39,F39,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>6</v>
       </c>
-      <c r="N39" s="20"/>
+      <c r="N39" s="20">
+        <f t="shared" si="3"/>
+        <v>2.3213520000000001</v>
+      </c>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
@@ -15690,7 +15795,10 @@
         <f>IF(F40&gt;E40,NETWORKDAYS(E40,F40,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N40" s="20"/>
+      <c r="N40" s="20">
+        <f t="shared" si="3"/>
+        <v>0.40748399999999996</v>
+      </c>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
@@ -15736,7 +15844,10 @@
         <f>IF(F41&gt;E41,NETWORKDAYS(E41,F41,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N41" s="20"/>
+      <c r="N41" s="20">
+        <f t="shared" si="3"/>
+        <v>1.616868</v>
+      </c>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
@@ -15782,7 +15893,10 @@
         <f>IF(F42&gt;E42,NETWORKDAYS(E42,F42,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N42" s="20"/>
+      <c r="N42" s="20">
+        <f t="shared" si="3"/>
+        <v>2.9486159999999999</v>
+      </c>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
@@ -15828,7 +15942,10 @@
         <f>IF(F43&gt;E43,NETWORKDAYS(E43,F43,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>12</v>
       </c>
-      <c r="N43" s="20"/>
+      <c r="N43" s="20">
+        <f t="shared" si="3"/>
+        <v>3.6685439999999998</v>
+      </c>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
@@ -15874,7 +15991,10 @@
         <f>IF(F44&gt;E44,NETWORKDAYS(E44,F44,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N44" s="20"/>
+      <c r="N44" s="20">
+        <f t="shared" si="3"/>
+        <v>2.6504279999999998</v>
+      </c>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
@@ -15920,7 +16040,10 @@
         <f>IF(F45&gt;E45,NETWORKDAYS(E45,F45,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>7</v>
       </c>
-      <c r="N45" s="20"/>
+      <c r="N45" s="20">
+        <f t="shared" si="3"/>
+        <v>-2.1609719999999997</v>
+      </c>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
@@ -15966,7 +16089,10 @@
         <f>IF(F46&gt;E46,NETWORKDAYS(E46,F46,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N46" s="20"/>
+      <c r="N46" s="20">
+        <f t="shared" si="3"/>
+        <v>1.7309159999999999</v>
+      </c>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
@@ -16012,7 +16138,10 @@
         <f>IF(F47&gt;E47,NETWORKDAYS(E47,F47,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>6</v>
       </c>
-      <c r="N47" s="20"/>
+      <c r="N47" s="20">
+        <f t="shared" si="3"/>
+        <v>0.91357200000000005</v>
+      </c>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
@@ -16058,7 +16187,10 @@
         <f>IF(F48&gt;E48,NETWORKDAYS(E48,F48,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>9</v>
       </c>
-      <c r="N48" s="20"/>
+      <c r="N48" s="20">
+        <f t="shared" si="3"/>
+        <v>1.5942959999999999</v>
+      </c>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
@@ -16104,7 +16236,10 @@
         <f>IF(F49&gt;E49,NETWORKDAYS(E49,F49,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N49" s="20"/>
+      <c r="N49" s="20">
+        <f t="shared" si="3"/>
+        <v>2.2714560000000001</v>
+      </c>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
@@ -16150,7 +16285,10 @@
         <f>IF(F50&gt;E50,NETWORKDAYS(E50,F50,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N50" s="20"/>
+      <c r="N50" s="20">
+        <f t="shared" si="3"/>
+        <v>2.9569320000000001</v>
+      </c>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
@@ -16196,7 +16334,10 @@
         <f>IF(F51&gt;E51,NETWORKDAYS(E51,F51,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>8</v>
       </c>
-      <c r="N51" s="20"/>
+      <c r="N51" s="20">
+        <f t="shared" si="3"/>
+        <v>3.422628</v>
+      </c>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
@@ -16242,7 +16383,10 @@
         <f>IF(F52&gt;E52,NETWORKDAYS(E52,F52,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N52" s="20"/>
+      <c r="N52" s="20">
+        <f t="shared" si="3"/>
+        <v>3.4428239999999999</v>
+      </c>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
@@ -16288,7 +16432,10 @@
         <f>IF(F53&gt;E53,NETWORKDAYS(E53,F53,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N53" s="20"/>
+      <c r="N53" s="20">
+        <f t="shared" si="3"/>
+        <v>3.9394079999999998</v>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
@@ -16334,7 +16481,10 @@
         <f>IF(F54&gt;E54,NETWORKDAYS(E54,F54,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N54" s="20"/>
+      <c r="N54" s="20">
+        <f t="shared" si="3"/>
+        <v>2.2643279999999999</v>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
@@ -16380,7 +16530,10 @@
         <f>IF(F55&gt;E55,NETWORKDAYS(E55,F55,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N55" s="20"/>
+      <c r="N55" s="20">
+        <f t="shared" si="3"/>
+        <v>3.8099159999999999</v>
+      </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
@@ -16426,7 +16579,10 @@
         <f>IF(F56&gt;E56,NETWORKDAYS(E56,F56,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N56" s="20"/>
+      <c r="N56" s="20">
+        <f t="shared" si="3"/>
+        <v>2.5399439999999998</v>
+      </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
@@ -16472,7 +16628,10 @@
         <f>IF(F57&gt;E57,NETWORKDAYS(E57,F57,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N57" s="20"/>
+      <c r="N57" s="20">
+        <f t="shared" si="3"/>
+        <v>0.49895999999999996</v>
+      </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
@@ -16518,7 +16677,10 @@
         <f>IF(F58&gt;E58,NETWORKDAYS(E58,F58,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N58" s="20"/>
+      <c r="N58" s="20">
+        <f t="shared" si="3"/>
+        <v>1.5016320000000001</v>
+      </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
@@ -16564,7 +16726,10 @@
         <f>IF(F59&gt;E59,NETWORKDAYS(E59,F59,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N59" s="20"/>
+      <c r="N59" s="20">
+        <f t="shared" si="3"/>
+        <v>1.521828</v>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
@@ -16610,7 +16775,10 @@
         <f>IF(F60&gt;E60,NETWORKDAYS(E60,F60,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N60" s="20"/>
+      <c r="N60" s="20">
+        <f t="shared" si="3"/>
+        <v>3.8229839999999999</v>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
@@ -16656,7 +16824,10 @@
         <f>IF(F61&gt;E61,NETWORKDAYS(E61,F61,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N61" s="20"/>
+      <c r="N61" s="20">
+        <f t="shared" si="3"/>
+        <v>2.1692879999999999</v>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
@@ -16702,7 +16873,10 @@
         <f>IF(F62&gt;E62,NETWORKDAYS(E62,F62,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N62" s="20"/>
+      <c r="N62" s="20">
+        <f t="shared" si="3"/>
+        <v>0.477576</v>
+      </c>
     </row>
     <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
@@ -16748,7 +16922,10 @@
         <f>IF(F63&gt;E63,NETWORKDAYS(E63,F63,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N63" s="20"/>
+      <c r="N63" s="20">
+        <f t="shared" si="3"/>
+        <v>0.203148</v>
+      </c>
     </row>
     <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
@@ -16794,7 +16971,10 @@
         <f>IF(F64&gt;E64,NETWORKDAYS(E64,F64,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>11</v>
       </c>
-      <c r="N64" s="20"/>
+      <c r="N64" s="20">
+        <f t="shared" si="3"/>
+        <v>1.8425879999999999</v>
+      </c>
     </row>
     <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
@@ -16840,7 +17020,10 @@
         <f>IF(F65&gt;E65,NETWORKDAYS(E65,F65,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N65" s="20"/>
+      <c r="N65" s="20">
+        <f t="shared" si="3"/>
+        <v>1.2996719999999999</v>
+      </c>
     </row>
     <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
@@ -16886,7 +17069,10 @@
         <f>IF(F66&gt;E66,NETWORKDAYS(E66,F66,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N66" s="20"/>
+      <c r="N66" s="20">
+        <f t="shared" si="3"/>
+        <v>2.4056999999999999</v>
+      </c>
     </row>
     <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
@@ -16932,7 +17118,10 @@
         <f>IF(F67&gt;E67,NETWORKDAYS(E67,F67,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N67" s="20"/>
+      <c r="N67" s="20">
+        <f t="shared" si="3"/>
+        <v>0.45619199999999999</v>
+      </c>
     </row>
     <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
@@ -16978,7 +17167,10 @@
         <f>IF(F68&gt;E68,NETWORKDAYS(E68,F68,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>6</v>
       </c>
-      <c r="N68" s="20"/>
+      <c r="N68" s="20">
+        <f t="shared" si="3"/>
+        <v>3.6008279999999999</v>
+      </c>
     </row>
     <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
@@ -17024,7 +17216,10 @@
         <f>IF(F69&gt;E69,NETWORKDAYS(E69,F69,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N69" s="20"/>
+      <c r="N69" s="20">
+        <f t="shared" si="3"/>
+        <v>3.4154999999999998</v>
+      </c>
     </row>
     <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
@@ -17070,7 +17265,10 @@
         <f>IF(F70&gt;E70,NETWORKDAYS(E70,F70,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>3</v>
       </c>
-      <c r="N70" s="20"/>
+      <c r="N70" s="20">
+        <f t="shared" ref="N70:N88" si="4">J70*$N$2</f>
+        <v>1.607364</v>
+      </c>
     </row>
     <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
@@ -17116,7 +17314,10 @@
         <f>IF(F71&gt;E71,NETWORKDAYS(E71,F71,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N71" s="20"/>
+      <c r="N71" s="20">
+        <f t="shared" si="4"/>
+        <v>0.87199199999999999</v>
+      </c>
     </row>
     <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
@@ -17162,7 +17363,10 @@
         <f>IF(F72&gt;E72,NETWORKDAYS(E72,F72,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>10</v>
       </c>
-      <c r="N72" s="20"/>
+      <c r="N72" s="20">
+        <f t="shared" si="4"/>
+        <v>2.1621600000000001</v>
+      </c>
     </row>
     <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
@@ -17208,7 +17412,10 @@
         <f>IF(F73&gt;E73,NETWORKDAYS(E73,F73,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>5</v>
       </c>
-      <c r="N73" s="20"/>
+      <c r="N73" s="20">
+        <f t="shared" si="4"/>
+        <v>1.9685159999999997</v>
+      </c>
     </row>
     <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
@@ -17254,7 +17461,10 @@
         <f>IF(F74&gt;E74,NETWORKDAYS(E74,F74,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N74" s="20"/>
+      <c r="N74" s="20">
+        <f t="shared" si="4"/>
+        <v>3.025836</v>
+      </c>
     </row>
     <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
@@ -17300,7 +17510,10 @@
         <f>IF(F75&gt;E75,NETWORKDAYS(E75,F75,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N75" s="20"/>
+      <c r="N75" s="20">
+        <f t="shared" si="4"/>
+        <v>2.1728520000000002</v>
+      </c>
     </row>
     <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
@@ -17346,7 +17559,10 @@
         <f>IF(F76&gt;E76,NETWORKDAYS(E76,F76,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N76" s="20"/>
+      <c r="N76" s="20">
+        <f t="shared" si="4"/>
+        <v>2.9403000000000001</v>
+      </c>
     </row>
     <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
@@ -17392,7 +17608,10 @@
         <f>IF(F77&gt;E77,NETWORKDAYS(E77,F77,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>7</v>
       </c>
-      <c r="N77" s="20"/>
+      <c r="N77" s="20">
+        <f t="shared" si="4"/>
+        <v>3.8360519999999996</v>
+      </c>
     </row>
     <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
@@ -17438,7 +17657,10 @@
         <f>IF(F78&gt;E78,NETWORKDAYS(E78,F78,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N78" s="20"/>
+      <c r="N78" s="20">
+        <f t="shared" si="4"/>
+        <v>1.8841679999999998</v>
+      </c>
     </row>
     <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
@@ -17484,7 +17706,10 @@
         <f>IF(F79&gt;E79,NETWORKDAYS(E79,F79,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>9</v>
       </c>
-      <c r="N79" s="20"/>
+      <c r="N79" s="20">
+        <f t="shared" si="4"/>
+        <v>2.341548</v>
+      </c>
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
@@ -17530,7 +17755,10 @@
         <f>IF(F80&gt;E80,NETWORKDAYS(E80,F80,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N80" s="20"/>
+      <c r="N80" s="20">
+        <f t="shared" si="4"/>
+        <v>2.914164</v>
+      </c>
     </row>
     <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
@@ -17576,7 +17804,10 @@
         <f>IF(F81&gt;E81,NETWORKDAYS(E81,F81,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>7</v>
       </c>
-      <c r="N81" s="20"/>
+      <c r="N81" s="20">
+        <f t="shared" si="4"/>
+        <v>1.527768</v>
+      </c>
     </row>
     <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
@@ -17622,7 +17853,10 @@
         <f>IF(F82&gt;E82,NETWORKDAYS(E82,F82,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N82" s="20"/>
+      <c r="N82" s="20">
+        <f t="shared" si="4"/>
+        <v>3.4404479999999995</v>
+      </c>
     </row>
     <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
@@ -17668,7 +17902,10 @@
         <f>IF(F83&gt;E83,NETWORKDAYS(E83,F83,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N83" s="20"/>
+      <c r="N83" s="20">
+        <f t="shared" si="4"/>
+        <v>2.7514079999999996</v>
+      </c>
     </row>
     <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
@@ -17714,7 +17951,10 @@
         <f>IF(F84&gt;E84,NETWORKDAYS(E84,F84,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N84" s="20"/>
+      <c r="N84" s="20">
+        <f t="shared" si="4"/>
+        <v>1.208196</v>
+      </c>
     </row>
     <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
@@ -17760,7 +18000,10 @@
         <f>IF(F85&gt;E85,NETWORKDAYS(E85,F85,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>6</v>
       </c>
-      <c r="N85" s="20"/>
+      <c r="N85" s="20">
+        <f t="shared" si="4"/>
+        <v>2.7478439999999997</v>
+      </c>
     </row>
     <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
@@ -17806,7 +18049,10 @@
         <f>IF(F86&gt;E86,NETWORKDAYS(E86,F86,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N86" s="20"/>
+      <c r="N86" s="20">
+        <f t="shared" si="4"/>
+        <v>1.606176</v>
+      </c>
     </row>
     <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
@@ -17852,7 +18098,10 @@
         <f>IF(F87&gt;E87,NETWORKDAYS(E87,F87,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>7</v>
       </c>
-      <c r="N87" s="20"/>
+      <c r="N87" s="20">
+        <f t="shared" si="4"/>
+        <v>3.7160639999999998</v>
+      </c>
     </row>
     <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
@@ -17898,7 +18147,10 @@
         <f>IF(F88&gt;E88,NETWORKDAYS(E88,F88,'NSW Holidays 2020'!$A$4:$A$15),0)</f>
         <v>0</v>
       </c>
-      <c r="N88" s="20"/>
+      <c r="N88" s="20">
+        <f t="shared" si="4"/>
+        <v>1.919808</v>
+      </c>
     </row>
     <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D89" s="2"/>
@@ -26109,7 +26361,7 @@
       <c r="N1000" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A5:N88 O6">
+  <conditionalFormatting sqref="O6 A5:N88">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$I5=$K$2</formula>
     </cfRule>
